--- a/Multi City Data Specification.xlsx
+++ b/Multi City Data Specification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{46C131F5-01B3-F246-86D2-54462A302C95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6D93EA0A-F921-8E4A-8DDD-3EDEF0A1D6C3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D03AA49-E8B1-B540-BC1B-DDF9E389677D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24140" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24140" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="264">
   <si>
     <t>Description</t>
   </si>
@@ -812,6 +812,9 @@
   </si>
   <si>
     <t>Vedant got the dates</t>
+  </si>
+  <si>
+    <t>TTI Data</t>
   </si>
 </sst>
 </file>
@@ -1233,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D63" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1674,7 +1677,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="12" t="s">
         <v>47</v>
       </c>
@@ -2602,7 +2605,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="13" x14ac:dyDescent="0.2">
       <c r="B81" s="15" t="s">
         <v>135</v>
       </c>
@@ -2619,7 +2622,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="13" x14ac:dyDescent="0.2">
       <c r="B82" s="15" t="s">
         <v>135</v>
       </c>
@@ -2636,7 +2639,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B83" s="14" t="s">
         <v>136</v>
       </c>
@@ -2648,13 +2651,16 @@
       <c r="H83" s="12" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B86" s="16" t="s">
         <v>138</v>
       </c>
@@ -2671,7 +2677,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="13" x14ac:dyDescent="0.2">
       <c r="B87" s="12" t="s">
         <v>139</v>
       </c>
@@ -2684,7 +2690,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="13" x14ac:dyDescent="0.2">
       <c r="B88" s="12" t="s">
         <v>140</v>
       </c>
@@ -2697,7 +2703,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="13" x14ac:dyDescent="0.2">
       <c r="B89" s="16" t="s">
         <v>141</v>
       </c>
@@ -2714,7 +2720,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="13" x14ac:dyDescent="0.2">
       <c r="B90" s="12" t="s">
         <v>142</v>
       </c>
@@ -2725,7 +2731,7 @@
       <c r="G90" s="13"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="13" x14ac:dyDescent="0.2">
       <c r="B91" s="12" t="s">
         <v>143</v>
       </c>
@@ -2736,7 +2742,7 @@
       <c r="G91" s="13"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="13" x14ac:dyDescent="0.2">
       <c r="B92" s="12" t="s">
         <v>144</v>
       </c>
@@ -2747,12 +2753,12 @@
       <c r="G92" s="13"/>
       <c r="H92" s="12"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="13" x14ac:dyDescent="0.2">
       <c r="B95" s="14" t="s">
         <v>146</v>
       </c>
@@ -2765,7 +2771,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="13" x14ac:dyDescent="0.2">
       <c r="B96" s="14" t="s">
         <v>147</v>
       </c>
